--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>54.82987066666666</v>
+        <v>0.331241</v>
       </c>
       <c r="H2">
-        <v>164.489612</v>
+        <v>0.9937229999999999</v>
       </c>
       <c r="I2">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="J2">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>1255.960267936388</v>
+        <v>0.007713277925999999</v>
       </c>
       <c r="R2">
-        <v>11303.64241142749</v>
+        <v>0.069419501334</v>
       </c>
       <c r="S2">
-        <v>0.9221818647391945</v>
+        <v>0.00188005794973914</v>
       </c>
       <c r="T2">
-        <v>0.9221818647391945</v>
+        <v>0.00188005794973914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>54.82987066666666</v>
+        <v>0.331241</v>
       </c>
       <c r="H3">
-        <v>164.489612</v>
+        <v>0.9937229999999999</v>
       </c>
       <c r="I3">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="J3">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>7.287949855766221</v>
+        <v>0.04402833289266665</v>
       </c>
       <c r="R3">
-        <v>65.59154870189599</v>
+        <v>0.3962549960339999</v>
       </c>
       <c r="S3">
-        <v>0.005351136783298811</v>
+        <v>0.01073160050276389</v>
       </c>
       <c r="T3">
-        <v>0.005351136783298811</v>
+        <v>0.01073160050276389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>54.82987066666666</v>
+        <v>0.331241</v>
       </c>
       <c r="H4">
-        <v>164.489612</v>
+        <v>0.9937229999999999</v>
       </c>
       <c r="I4">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="J4">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>66.36762896793556</v>
+        <v>0.7766890385986667</v>
       </c>
       <c r="R4">
-        <v>597.30866071142</v>
+        <v>6.990201347388</v>
       </c>
       <c r="S4">
-        <v>0.04873006368308906</v>
+        <v>0.1893125614689115</v>
       </c>
       <c r="T4">
-        <v>0.04873006368308905</v>
+        <v>0.1893125614689115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.967313</v>
       </c>
       <c r="I5">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="J5">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>22.656915444187</v>
+        <v>0.023032283506</v>
       </c>
       <c r="R5">
-        <v>203.912238997683</v>
+        <v>0.207290551554</v>
       </c>
       <c r="S5">
-        <v>0.01663571457390789</v>
+        <v>0.005613959217019528</v>
       </c>
       <c r="T5">
-        <v>0.01663571457390789</v>
+        <v>0.005613959217019529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.967313</v>
       </c>
       <c r="I6">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="J6">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
         <v>0.1314710885837777</v>
@@ -818,10 +818,10 @@
         <v>1.183239797254</v>
       </c>
       <c r="S6">
-        <v>9.653191802690097E-05</v>
+        <v>0.03204516518452107</v>
       </c>
       <c r="T6">
-        <v>9.653191802690097E-05</v>
+        <v>0.03204516518452107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.967313</v>
       </c>
       <c r="I7">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="J7">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>1.197239909689444</v>
+        <v>2.319237333936444</v>
       </c>
       <c r="R7">
-        <v>10.775159187205</v>
+        <v>20.873136005428</v>
       </c>
       <c r="S7">
-        <v>0.000879066767192922</v>
+        <v>0.5652980002576173</v>
       </c>
       <c r="T7">
-        <v>0.0008790667671929218</v>
+        <v>0.5652980002576173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3440333333333334</v>
+        <v>0.320077</v>
       </c>
       <c r="H8">
-        <v>1.0321</v>
+        <v>0.9602310000000001</v>
       </c>
       <c r="I8">
-        <v>0.006125621535289911</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="J8">
-        <v>0.00612562153528991</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>7.880598517900001</v>
+        <v>0.007453313022</v>
       </c>
       <c r="R8">
-        <v>70.92538666110001</v>
+        <v>0.06707981719800001</v>
       </c>
       <c r="S8">
-        <v>0.005786285778322115</v>
+        <v>0.001816693309036788</v>
       </c>
       <c r="T8">
-        <v>0.005786285778322115</v>
+        <v>0.001816693309036788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3440333333333334</v>
+        <v>0.320077</v>
       </c>
       <c r="H9">
-        <v>1.0321</v>
+        <v>0.9602310000000001</v>
       </c>
       <c r="I9">
-        <v>0.006125621535289911</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="J9">
-        <v>0.00612562153528991</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>0.0457286813111111</v>
+        <v>0.04254442145533333</v>
       </c>
       <c r="R9">
-        <v>0.4115581317999999</v>
+        <v>0.382899793098</v>
       </c>
       <c r="S9">
-        <v>3.357603077112677E-05</v>
+        <v>0.01036990739106318</v>
       </c>
       <c r="T9">
-        <v>3.357603077112677E-05</v>
+        <v>0.01036990739106318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3440333333333334</v>
+        <v>0.320077</v>
       </c>
       <c r="H10">
-        <v>1.0321</v>
+        <v>0.9602310000000001</v>
       </c>
       <c r="I10">
-        <v>0.006125621535289911</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="J10">
-        <v>0.00612562153528991</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>0.4164276942777779</v>
+        <v>0.7505118551373334</v>
       </c>
       <c r="R10">
-        <v>3.7478492485</v>
+        <v>6.754606696236001</v>
       </c>
       <c r="S10">
-        <v>0.0003057597261966685</v>
+        <v>0.1829320547193276</v>
       </c>
       <c r="T10">
-        <v>0.0003057597261966684</v>
+        <v>0.1829320547193276</v>
       </c>
     </row>
   </sheetData>
